--- a/biology/Botanique/Plectranthus_punctatus/Plectranthus_punctatus.xlsx
+++ b/biology/Botanique/Plectranthus_punctatus/Plectranthus_punctatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plectranthus punctatus est une espèce de plantes de la famille des Lamiaceae et du genre Plectranthus, présente en Afrique. La sous-espèce Plectranthus punctatus subsp. lanatus J.K. Morton est endémique du Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plectranthus punctatus est une plante vivace à fleurs avec des tiges pubescentes, c'est-à-dire recouvertes d'un duvet, simples ou ramifiées. Les feuilles et les fleurs de cette plante sont également pubescents[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plectranthus punctatus est une plante vivace à fleurs avec des tiges pubescentes, c'est-à-dire recouvertes d'un duvet, simples ou ramifiées. Les feuilles et les fleurs de cette plante sont également pubescents.
 </t>
         </is>
       </c>
@@ -542,14 +556,16 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (20 juillet 2018)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (20 juillet 2018) :
 sous-espèce Plectranthus punctatus subsp. lanatus
 sous-espèce Plectranthus punctatus subsp. punctatus
-Selon The Plant List            (20 juillet 2018)[2] :
+Selon The Plant List            (20 juillet 2018) :
 sous-espèce Plectranthus punctatus subsp. edulis (Vatke) A.J.Paton
-Selon Tropicos                                           (20 juillet 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (20 juillet 2018) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Plectranthus punctatus subsp. edulis (Vatke) A.J. Paton, communément appelée Gala Dinich[réf. souhaitée]
 sous-espèce Plectranthus punctatus subsp. lanatus J.K. Morton
 sous-espèce Plectranthus punctatus subsp. punctatus</t>
@@ -580,10 +596,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plectranthus punctatus est une plante endémique du Cameroun. On la trouve dans les montagnes de Bamboutos et les hautes terres de Bamenda. Sa plus grande population a été trouvée près du marais d'Afua. En effet, Plectranthus punctatus est une plante qui se trouve dans les prairies humides près des marécages[5].
-Selon l'Union internationale pour la conservation de la nature (UICN), qui a placé la sous-espèce lanatus sur sa liste rouge comme étant « vulnérable » le 30 juin 2000, le drainage et le développement des zones marécageuses représentent une menace pour l'espèce[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plectranthus punctatus est une plante endémique du Cameroun. On la trouve dans les montagnes de Bamboutos et les hautes terres de Bamenda. Sa plus grande population a été trouvée près du marais d'Afua. En effet, Plectranthus punctatus est une plante qui se trouve dans les prairies humides près des marécages.
+Selon l'Union internationale pour la conservation de la nature (UICN), qui a placé la sous-espèce lanatus sur sa liste rouge comme étant « vulnérable » le 30 juin 2000, le drainage et le développement des zones marécageuses représentent une menace pour l'espèce.
 </t>
         </is>
       </c>
@@ -612,9 +630,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Plectranthus punctatis edulis est traditionnellement cultivée dans les Hautes terres éthiopiennes. Ses feuilles sont utilisées comme herbe aromatique et ses racines, riches en amidon, sont utilisées en cuisine[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Plectranthus punctatis edulis est traditionnellement cultivée dans les Hautes terres éthiopiennes. Ses feuilles sont utilisées comme herbe aromatique et ses racines, riches en amidon, sont utilisées en cuisine.
 </t>
         </is>
       </c>
